--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from DK_IHE_FormatCod" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from DK IHE Format Co" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>DK PHMR schema</t>
+  </si>
+  <si>
+    <t>urn:ad:dk:medcom:phmr-v2.1:full</t>
   </si>
   <si>
     <t>urn:ad:dk:medcom:prvs-v1.0:full</t>
@@ -459,7 +462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,23 +549,23 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -570,15 +573,15 @@
         <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -586,7 +589,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -594,7 +597,7 @@
         <v>53</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +605,7 @@
         <v>54</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -610,12 +613,12 @@
         <v>55</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>57</v>
@@ -626,7 +629,15 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>59</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-formatcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
